--- a/data-raw/alta_lake_pb210.xlsx
+++ b/data-raw/alta_lake_pb210.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dewey/d/rdevel/pb210/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715BF361-FB88-8F4D-B1F0-CE8A8AFA6305}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D451E24-2B56-FB4E-A983-E13D6CE0F0A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5500" yWindow="3840" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{9AD30D51-AB46-5F49-9601-675826E02105}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="194">
   <si>
     <t>sample_id</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>disk_number</t>
-  </si>
-  <si>
-    <t>slice_mas_g</t>
   </si>
   <si>
     <t>section_top_cm</t>
@@ -1281,7 +1278,7 @@
         <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
         <v>37</v>
@@ -2222,7 +2219,7 @@
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2263,103 +2260,103 @@
         <v>117</v>
       </c>
       <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>123</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>124</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>125</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>127</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>128</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>129</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>130</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>132</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>133</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>134</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>135</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>136</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" t="s">
         <v>137</v>
       </c>
-      <c r="W1" t="s">
-        <v>140</v>
-      </c>
-      <c r="X1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE1" t="s">
         <v>145</v>
       </c>
-      <c r="Z1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>146</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>147</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>148</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>149</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
@@ -4347,25 +4344,25 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="62"/>
       <c r="H1" s="71"/>
       <c r="S1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y1" s="59"/>
       <c r="Z1" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA1" s="13">
         <f>AVERAGE(X40:X45)</f>
@@ -4374,7 +4371,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" s="66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5">
         <v>998</v>
@@ -4382,20 +4379,20 @@
       <c r="D2" s="62"/>
       <c r="H2" s="71"/>
       <c r="S2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y2" s="59"/>
       <c r="Z2" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA2" s="13">
         <f>_xlfn.STDEV.S(X40:X45)</f>
@@ -4404,22 +4401,22 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" s="66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" s="62"/>
       <c r="H3" s="71"/>
       <c r="S3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y3" s="59"/>
       <c r="Z3" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA3" s="13">
         <f>3.14159*(C20/2)^2*0.0001</f>
@@ -4431,53 +4428,53 @@
       <c r="D4" s="62"/>
       <c r="H4" s="71"/>
       <c r="S4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y4" s="59"/>
       <c r="AA4" s="13"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="72"/>
       <c r="S5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y5" s="59"/>
       <c r="AA5" s="13"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="62"/>
       <c r="S6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y6" s="59"/>
       <c r="AA6" s="13"/>
@@ -4486,10 +4483,10 @@
       <c r="A7" s="66"/>
       <c r="C7" s="62"/>
       <c r="G7" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H7" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K7" s="70">
         <f>1.509</f>
@@ -4497,34 +4494,34 @@
       </c>
       <c r="L7" s="22"/>
       <c r="S7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y7" s="59"/>
       <c r="AA7" s="13"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="68"/>
       <c r="G8" s="62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y8" s="59"/>
       <c r="AA8" s="13"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="68"/>
       <c r="F9" s="69"/>
@@ -4533,7 +4530,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="68"/>
       <c r="Y10" s="59"/>
@@ -4541,10 +4538,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="64"/>
@@ -4560,7 +4557,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="1"/>
       <c r="L12" s="64"/>
@@ -4621,11 +4618,11 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
@@ -4641,7 +4638,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A17" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="7">
@@ -4661,11 +4658,11 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A18" s="61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
@@ -4680,11 +4677,11 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A19" s="61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
@@ -4699,7 +4696,7 @@
     </row>
     <row r="20" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="7">
@@ -4710,18 +4707,18 @@
     </row>
     <row r="21" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" s="60"/>
       <c r="Y21" s="59"/>
     </row>
     <row r="22" spans="1:35" s="52" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="57"/>
@@ -5224,35 +5221,35 @@
         <v>2.5742055669181996</v>
       </c>
       <c r="Z30" s="14">
-        <f>IF(X30=0,(X29+X31)/2,+X30)</f>
+        <f t="shared" ref="Z30:Z43" si="0">IF(X30=0,(X29+X31)/2,+X30)</f>
         <v>0.33841253847881747</v>
       </c>
       <c r="AA30" s="14">
-        <f>IF(Z30=0,0,+Z30-$AA$1)</f>
+        <f t="shared" ref="AA30:AA43" si="1">IF(Z30=0,0,+Z30-$AA$1)</f>
         <v>0.30184120354158672</v>
       </c>
       <c r="AB30" s="14">
-        <f>+AA30*E30</f>
+        <f t="shared" ref="AB30:AB43" si="2">+AA30*E30</f>
         <v>0.79384236531437302</v>
       </c>
       <c r="AC30" s="14">
-        <f>+AC31+AB30</f>
+        <f t="shared" ref="AC30:AC43" si="3">+AC31+AB30</f>
         <v>8.1973832412102148</v>
       </c>
       <c r="AD30" s="6">
-        <f>$C$29-1/0.03108*LN(($AC$30/AC30))</f>
+        <f t="shared" ref="AD30:AD39" si="4">$C$29-1/0.03108*LN(($AC$30/AC30))</f>
         <v>2014.6021505376343</v>
       </c>
       <c r="AE30" s="6">
-        <f>0.031*AC30/AA30/$AA$3</f>
+        <f t="shared" ref="AE30:AE39" si="5">0.031*AC30/AA30/$AA$3</f>
         <v>270.07712139785741</v>
       </c>
       <c r="AF30" s="6">
-        <f>SQRT((Y30*X30/100)^2+$AA$2^2)</f>
+        <f t="shared" ref="AF30:AF39" si="6">SQRT((Y30*X30/100)^2+$AA$2^2)</f>
         <v>1.0085169193579898E-2</v>
       </c>
       <c r="AG30" s="6">
-        <f>AF30/AA30*100</f>
+        <f t="shared" ref="AG30:AG39" si="7">AF30/AA30*100</f>
         <v>3.341216863452638</v>
       </c>
       <c r="AH30" s="6">
@@ -5303,35 +5300,35 @@
       <c r="X31" s="16"/>
       <c r="Y31" s="15"/>
       <c r="Z31" s="14">
-        <f>IF(X31=0,(X30+X32)/2,+X31)</f>
+        <f t="shared" si="0"/>
         <v>0.37647853585201169</v>
       </c>
       <c r="AA31" s="14">
-        <f>IF(Z31=0,0,+Z31-$AA$1)</f>
+        <f t="shared" si="1"/>
         <v>0.33990720091478094</v>
       </c>
       <c r="AB31" s="14">
-        <f>+AA31*E31</f>
+        <f t="shared" si="2"/>
         <v>0.71720419393018775</v>
       </c>
       <c r="AC31" s="14">
-        <f>+AC32+AB31</f>
+        <f t="shared" si="3"/>
         <v>7.4035408758958416</v>
       </c>
       <c r="AD31" s="6">
-        <f>$C$29-1/0.03108*LN(($AC$30/AC31))</f>
+        <f t="shared" si="4"/>
         <v>2011.3249110297115</v>
       </c>
       <c r="AE31" s="6">
-        <f>0.031*AC31/AA31/$AA$3</f>
+        <f t="shared" si="5"/>
         <v>216.60585600617901</v>
       </c>
       <c r="AF31" s="6">
-        <f>SQRT((Y31*X31/100)^2+$AA$2^2)</f>
+        <f t="shared" si="6"/>
         <v>5.0814907533369529E-3</v>
       </c>
       <c r="AG31" s="6">
-        <f>AF31/AA31*100</f>
+        <f t="shared" si="7"/>
         <v>1.4949641371707649</v>
       </c>
       <c r="AH31" s="6" t="s">
@@ -5385,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="18">
-        <f>DATE(L32,M32,N32)-DATE(I32,J32,K32)</f>
+        <f t="shared" ref="O32:O48" si="8">DATE(L32,M32,N32)-DATE(I32,J32,K32)</f>
         <v>2</v>
       </c>
       <c r="P32" s="18">
@@ -5401,67 +5398,67 @@
         <v>2147</v>
       </c>
       <c r="T32" s="14">
-        <f>(R32/Q32)</f>
+        <f t="shared" ref="T32:T48" si="9">(R32/Q32)</f>
         <v>3.246497052225767E-2</v>
       </c>
       <c r="U32" s="16">
-        <f>(S32/Q32)</f>
+        <f t="shared" ref="U32:U48" si="10">(S32/Q32)</f>
         <v>2.4202184621974727E-2</v>
       </c>
       <c r="V32" s="40">
-        <f>(T32/H32)/($K$7)/(0.26)*100</f>
+        <f t="shared" ref="V32:V48" si="11">(T32/H32)/($K$7)/(0.26)*100</f>
         <v>73.88127854270364</v>
       </c>
       <c r="W32" s="16">
-        <f>(H32)*($K$7)*(U32/T32)*(1/G32)</f>
+        <f t="shared" ref="W32:W48" si="12">(H32)*($K$7)*(U32/T32)*(1/G32)</f>
         <v>0.41040103148751356</v>
       </c>
       <c r="X32" s="16">
-        <f>EXP(0.0050228*(O32))*W32</f>
+        <f t="shared" ref="X32:X48" si="13">EXP(0.0050228*(O32))*W32</f>
         <v>0.4145445332252059</v>
       </c>
       <c r="Y32" s="15">
-        <f>SQRT(R32/(R32^2)+S32/(S32^2))*100</f>
+        <f t="shared" ref="Y32:Y48" si="14">SQRT(R32/(R32^2)+S32/(S32^2))*100</f>
         <v>2.8512951576383041</v>
       </c>
       <c r="Z32" s="14">
-        <f>IF(X32=0,(X31+X33)/2,+X32)</f>
+        <f t="shared" si="0"/>
         <v>0.4145445332252059</v>
       </c>
       <c r="AA32" s="14">
-        <f>IF(Z32=0,0,+Z32-$AA$1)</f>
+        <f t="shared" si="1"/>
         <v>0.37797319828797515</v>
       </c>
       <c r="AB32" s="14">
-        <f>+AA32*E32</f>
+        <f t="shared" si="2"/>
         <v>0.89957621192538084</v>
       </c>
       <c r="AC32" s="14">
-        <f>+AC33+AB32</f>
+        <f t="shared" si="3"/>
         <v>6.6863366819656536</v>
       </c>
       <c r="AD32" s="6">
-        <f>$C$29-1/0.03108*LN(($AC$30/AC32))</f>
+        <f t="shared" si="4"/>
         <v>2008.0465249448343</v>
       </c>
       <c r="AE32" s="6">
-        <f>0.031*AC32/AA32/$AA$3</f>
+        <f t="shared" si="5"/>
         <v>175.92125558784863</v>
       </c>
       <c r="AF32" s="6">
-        <f>SQRT((Y32*X32/100)^2+$AA$2^2)</f>
+        <f t="shared" si="6"/>
         <v>1.2865896991135153E-2</v>
       </c>
       <c r="AG32" s="6">
-        <f>AF32/AA32*100</f>
+        <f t="shared" si="7"/>
         <v>3.4039178040694611</v>
       </c>
       <c r="AH32" s="6">
-        <f>SQRT(AG32^2+AG32^2+2^2)</f>
+        <f t="shared" ref="AH32:AH39" si="15">SQRT(AG32^2+AG32^2+2^2)</f>
         <v>5.212802781011586</v>
       </c>
       <c r="AI32" s="6">
-        <f>1/0.03108*LN(($AC$30/AC32))*AH32/100</f>
+        <f t="shared" ref="AI32:AI39" si="16">1/0.03108*LN(($AC$30/AC32))*AH32/100</f>
         <v>0.34173183321417999</v>
       </c>
     </row>
@@ -5509,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="O33" s="18">
-        <f>DATE(L33,M33,N33)-DATE(I33,J33,K33)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="P33" s="18">
@@ -5525,67 +5522,67 @@
         <v>2383</v>
       </c>
       <c r="T33" s="14">
-        <f>(R33/Q33)</f>
+        <f t="shared" si="9"/>
         <v>3.8077846538838729E-2</v>
       </c>
       <c r="U33" s="16">
-        <f>(S33/Q33)</f>
+        <f t="shared" si="10"/>
         <v>2.6861902990542537E-2</v>
       </c>
       <c r="V33" s="17">
-        <f>(T33/H33)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>86.654629318500014</v>
       </c>
       <c r="W33" s="16">
-        <f>(H33)*($K$7)*(U33/T33)*(1/G33)</f>
+        <f t="shared" si="12"/>
         <v>0.40691531835183287</v>
       </c>
       <c r="X33" s="16">
-        <f>EXP(0.0050228*(O33))*W33</f>
+        <f t="shared" si="13"/>
         <v>0.41102362754046551</v>
       </c>
       <c r="Y33" s="15">
-        <f>SQRT(R33/(R33^2)+S33/(S33^2))*100</f>
+        <f t="shared" si="14"/>
         <v>2.6752051623726465</v>
       </c>
       <c r="Z33" s="14">
-        <f>IF(X33=0,(X32+X34)/2,+X33)</f>
+        <f t="shared" si="0"/>
         <v>0.41102362754046551</v>
       </c>
       <c r="AA33" s="14">
-        <f>IF(Z33=0,0,+Z33-$AA$1)</f>
+        <f t="shared" si="1"/>
         <v>0.37445229260323476</v>
       </c>
       <c r="AB33" s="14">
-        <f>+AA33*E33</f>
+        <f t="shared" si="2"/>
         <v>0.87621836469156933</v>
       </c>
       <c r="AC33" s="14">
-        <f>+AC34+AB33</f>
+        <f t="shared" si="3"/>
         <v>5.7867604700402726</v>
       </c>
       <c r="AD33" s="6">
-        <f>$C$29-1/0.03108*LN(($AC$30/AC33))</f>
+        <f t="shared" si="4"/>
         <v>2003.3974415375424</v>
       </c>
       <c r="AE33" s="6">
-        <f>0.031*AC33/AA33/$AA$3</f>
+        <f t="shared" si="5"/>
         <v>153.6845085100305</v>
       </c>
       <c r="AF33" s="6">
-        <f>SQRT((Y33*X33/100)^2+$AA$2^2)</f>
+        <f t="shared" si="6"/>
         <v>1.2113113687447672E-2</v>
       </c>
       <c r="AG33" s="6">
-        <f>AF33/AA33*100</f>
+        <f t="shared" si="7"/>
         <v>3.2348883760961735</v>
       </c>
       <c r="AH33" s="6">
-        <f>SQRT(AG33^2+AG33^2+2^2)</f>
+        <f t="shared" si="15"/>
         <v>4.9928955137879942</v>
       </c>
       <c r="AI33" s="6">
-        <f>1/0.03108*LN(($AC$30/AC33))*AH33/100</f>
+        <f t="shared" si="16"/>
         <v>0.55943941299858968</v>
       </c>
     </row>
@@ -5633,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="O34" s="18">
-        <f>DATE(L34,M34,N34)-DATE(I34,J34,K34)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="P34" s="18">
@@ -5649,67 +5646,67 @@
         <v>2277</v>
       </c>
       <c r="T34" s="14">
-        <f>(R34/Q34)</f>
+        <f t="shared" si="9"/>
         <v>3.3783859949724389E-2</v>
       </c>
       <c r="U34" s="16">
-        <f>(S34/Q34)</f>
+        <f t="shared" si="10"/>
         <v>2.5667617319159969E-2</v>
       </c>
       <c r="V34" s="17">
-        <f>(T34/H34)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>77.57534246983883</v>
       </c>
       <c r="W34" s="16">
-        <f>(H34)*($K$7)*(U34/T34)*(1/G34)</f>
+        <f t="shared" si="12"/>
         <v>0.37429117647058818</v>
       </c>
       <c r="X34" s="16">
-        <f>EXP(0.0050228*(O34))*W34</f>
+        <f t="shared" si="13"/>
         <v>0.37807010493596654</v>
       </c>
       <c r="Y34" s="15">
-        <f>SQRT(R34/(R34^2)+S34/(S34^2))*100</f>
+        <f t="shared" si="14"/>
         <v>2.7800024326455142</v>
       </c>
       <c r="Z34" s="14">
-        <f>IF(X34=0,(X33+X35)/2,+X34)</f>
+        <f t="shared" si="0"/>
         <v>0.37807010493596654</v>
       </c>
       <c r="AA34" s="14">
-        <f>IF(Z34=0,0,+Z34-$AA$1)</f>
+        <f t="shared" si="1"/>
         <v>0.3414987699987358</v>
       </c>
       <c r="AB34" s="14">
-        <f>+AA34*E34</f>
+        <f t="shared" si="2"/>
         <v>1.9499579766927815</v>
       </c>
       <c r="AC34" s="14">
-        <f>+AC35+AB34</f>
+        <f t="shared" si="3"/>
         <v>4.9105421053487035</v>
       </c>
       <c r="AD34" s="6">
-        <f>$C$29-1/0.03108*LN(($AC$30/AC34))</f>
+        <f t="shared" si="4"/>
         <v>1998.1146781347131</v>
       </c>
       <c r="AE34" s="6">
-        <f>0.031*AC34/AA34/$AA$3</f>
+        <f t="shared" si="5"/>
         <v>142.99846507922081</v>
       </c>
       <c r="AF34" s="6">
-        <f>SQRT((Y34*X34/100)^2+$AA$2^2)</f>
+        <f t="shared" si="6"/>
         <v>1.1674295523397247E-2</v>
       </c>
       <c r="AG34" s="6">
-        <f>AF34/AA34*100</f>
+        <f t="shared" si="7"/>
         <v>3.4185468730796496</v>
       </c>
       <c r="AH34" s="6">
-        <f>SQRT(AG34^2+AG34^2+2^2)</f>
+        <f t="shared" si="15"/>
         <v>5.2319141283936705</v>
       </c>
       <c r="AI34" s="6">
-        <f>1/0.03108*LN(($AC$30/AC34))*AH34/100</f>
+        <f t="shared" si="16"/>
         <v>0.86261039806344031</v>
       </c>
     </row>
@@ -5757,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="18">
-        <f>DATE(L35,M35,N35)-DATE(I35,J35,K35)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="P35" s="18">
@@ -5773,67 +5770,67 @@
         <v>1429</v>
       </c>
       <c r="T35" s="14">
-        <f>(R35/Q35)</f>
+        <f t="shared" si="9"/>
         <v>2.9478739234341887E-2</v>
       </c>
       <c r="U35" s="16">
-        <f>(S35/Q35)</f>
+        <f t="shared" si="10"/>
         <v>1.6109031879875547E-2</v>
       </c>
       <c r="V35" s="17">
-        <f>(T35/H35)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>68.305178797475961</v>
       </c>
       <c r="W35" s="16">
-        <f>(H35)*($K$7)*(U35/T35)*(1/G35)</f>
+        <f t="shared" si="12"/>
         <v>0.23438590718425303</v>
       </c>
       <c r="X35" s="16">
-        <f>EXP(0.0050228*(O35))*W35</f>
+        <f t="shared" si="13"/>
         <v>0.23675232037329519</v>
       </c>
       <c r="Y35" s="39">
-        <f>SQRT(R35/(R35^2)+S35/(S35^2))*100</f>
+        <f t="shared" si="14"/>
         <v>3.2896796816732374</v>
       </c>
       <c r="Z35" s="14">
-        <f>IF(X35=0,(X34+X36)/2,+X35)</f>
+        <f t="shared" si="0"/>
         <v>0.23675232037329519</v>
       </c>
       <c r="AA35" s="14">
-        <f>IF(Z35=0,0,+Z35-$AA$1)</f>
+        <f t="shared" si="1"/>
         <v>0.20018098543606444</v>
       </c>
       <c r="AB35" s="14">
-        <f>+AA35*E35</f>
+        <f t="shared" si="2"/>
         <v>1.1710587648009769</v>
       </c>
       <c r="AC35" s="14">
-        <f>+AC36+AB35</f>
+        <f t="shared" si="3"/>
         <v>2.9605841286559222</v>
       </c>
       <c r="AD35" s="6">
-        <f>$C$29-1/0.03108*LN(($AC$30/AC35))</f>
+        <f t="shared" si="4"/>
         <v>1981.834184103046</v>
       </c>
       <c r="AE35" s="6">
-        <f>0.031*AC35/AA35/$AA$3</f>
+        <f t="shared" si="5"/>
         <v>147.07730526439815</v>
       </c>
       <c r="AF35" s="6">
-        <f>SQRT((Y35*X35/100)^2+$AA$2^2)</f>
+        <f t="shared" si="6"/>
         <v>9.2994953344178854E-3</v>
       </c>
       <c r="AG35" s="6">
-        <f>AF35/AA35*100</f>
+        <f t="shared" si="7"/>
         <v>4.6455437883674717</v>
       </c>
       <c r="AH35" s="6">
-        <f>SQRT(AG35^2+AG35^2+2^2)</f>
+        <f t="shared" si="15"/>
         <v>6.867470726495978</v>
       </c>
       <c r="AI35" s="6">
-        <f>1/0.03108*LN(($AC$30/AC35))*AH35/100</f>
+        <f t="shared" si="16"/>
         <v>2.2503305025633802</v>
       </c>
     </row>
@@ -5881,7 +5878,7 @@
         <v>1</v>
       </c>
       <c r="O36" s="18">
-        <f>DATE(L36,M36,N36)-DATE(I36,J36,K36)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="P36" s="18">
@@ -5897,67 +5894,67 @@
         <v>982</v>
       </c>
       <c r="T36" s="14">
-        <f>(R36/Q36)</f>
+        <f t="shared" si="9"/>
         <v>4.1101604157507299E-2</v>
       </c>
       <c r="U36" s="16">
-        <f>(S36/Q36)</f>
+        <f t="shared" si="10"/>
         <v>1.1070152299142119E-2</v>
       </c>
       <c r="V36" s="17">
-        <f>(T36/H36)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>93.535863931582881</v>
       </c>
       <c r="W36" s="16">
-        <f>(H36)*($K$7)*(U36/T36)*(1/G36)</f>
+        <f t="shared" si="12"/>
         <v>0.14450788078259275</v>
       </c>
       <c r="X36" s="16">
-        <f>EXP(0.0050228*(O36))*W36</f>
+        <f t="shared" si="13"/>
         <v>0.14596686506672735</v>
       </c>
       <c r="Y36" s="39">
-        <f>SQRT(R36/(R36^2)+S36/(S36^2))*100</f>
+        <f t="shared" si="14"/>
         <v>3.595279008621699</v>
       </c>
       <c r="Z36" s="14">
-        <f>IF(X36=0,(X35+X37)/2,+X36)</f>
+        <f t="shared" si="0"/>
         <v>0.14596686506672735</v>
       </c>
       <c r="AA36" s="14">
-        <f>IF(Z36=0,0,+Z36-$AA$1)</f>
+        <f t="shared" si="1"/>
         <v>0.1093955301294966</v>
       </c>
       <c r="AB36" s="14">
-        <f>+AA36*E36</f>
+        <f t="shared" si="2"/>
         <v>0.7810840851246057</v>
       </c>
       <c r="AC36" s="14">
-        <f>+AC37+AB36</f>
+        <f t="shared" si="3"/>
         <v>1.7895253638549453</v>
       </c>
       <c r="AD36" s="6">
-        <f>$C$29-1/0.03108*LN(($AC$30/AC36))</f>
+        <f t="shared" si="4"/>
         <v>1965.6361093026928</v>
       </c>
       <c r="AE36" s="6">
-        <f>0.031*AC36/AA36/$AA$3</f>
+        <f t="shared" si="5"/>
         <v>162.67820114190297</v>
       </c>
       <c r="AF36" s="6">
-        <f>SQRT((Y36*X36/100)^2+$AA$2^2)</f>
+        <f t="shared" si="6"/>
         <v>7.3049415631867669E-3</v>
       </c>
       <c r="AG36" s="6">
-        <f>AF36/AA36*100</f>
+        <f t="shared" si="7"/>
         <v>6.6775503117353754</v>
       </c>
       <c r="AH36" s="6">
-        <f>SQRT(AG36^2+AG36^2+2^2)</f>
+        <f t="shared" si="15"/>
         <v>9.6529454743883445</v>
       </c>
       <c r="AI36" s="6">
-        <f>1/0.03108*LN(($AC$30/AC36))*AH36/100</f>
+        <f t="shared" si="16"/>
         <v>4.726665261375417</v>
       </c>
     </row>
@@ -6005,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="O37" s="18">
-        <f>DATE(L37,M37,N37)-DATE(I37,J37,K37)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="P37" s="18">
@@ -6021,67 +6018,67 @@
         <v>823</v>
       </c>
       <c r="T37" s="14">
-        <f>(R37/Q37)</f>
+        <f t="shared" si="9"/>
         <v>3.4644817365235718E-2</v>
       </c>
       <c r="U37" s="16">
-        <f>(S37/Q37)</f>
+        <f t="shared" si="10"/>
         <v>9.2754341872443059E-3</v>
       </c>
       <c r="V37" s="17">
-        <f>(T37/H37)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>79.552294377040411</v>
       </c>
       <c r="W37" s="16">
-        <f>(H37)*($K$7)*(U37/T37)*(1/G37)</f>
+        <f t="shared" si="12"/>
         <v>0.11617719482472078</v>
       </c>
       <c r="X37" s="16">
-        <f>EXP(0.0050228*(O37))*W37</f>
+        <f t="shared" si="13"/>
         <v>0.11735014608873606</v>
       </c>
       <c r="Y37" s="39">
-        <f>SQRT(R37/(R37^2)+S37/(S37^2))*100</f>
+        <f t="shared" si="14"/>
         <v>3.9247622504643371</v>
       </c>
       <c r="Z37" s="14">
-        <f>IF(X37=0,(X36+X38)/2,+X37)</f>
+        <f t="shared" si="0"/>
         <v>0.11735014608873606</v>
       </c>
       <c r="AA37" s="14">
-        <f>IF(Z37=0,0,+Z37-$AA$1)</f>
+        <f t="shared" si="1"/>
         <v>8.0778811151505314E-2</v>
       </c>
       <c r="AB37" s="14">
-        <f>+AA37*E37</f>
+        <f t="shared" si="2"/>
         <v>0.54364139904963082</v>
       </c>
       <c r="AC37" s="14">
-        <f>+AC38+AB37</f>
+        <f t="shared" si="3"/>
         <v>1.0084412787303396</v>
       </c>
       <c r="AD37" s="6">
-        <f>$C$29-1/0.03108*LN(($AC$30/AC37))</f>
+        <f t="shared" si="4"/>
         <v>1947.1822941655366</v>
       </c>
       <c r="AE37" s="6">
-        <f>0.031*AC37/AA37/$AA$3</f>
+        <f t="shared" si="5"/>
         <v>124.14928925637358</v>
       </c>
       <c r="AF37" s="6">
-        <f>SQRT((Y37*X37/100)^2+$AA$2^2)</f>
+        <f t="shared" si="6"/>
         <v>6.8581449304192877E-3</v>
       </c>
       <c r="AG37" s="6">
-        <f>AF37/AA37*100</f>
+        <f t="shared" si="7"/>
         <v>8.4900295419753586</v>
       </c>
       <c r="AH37" s="6">
-        <f>SQRT(AG37^2+AG37^2+2^2)</f>
+        <f t="shared" si="15"/>
         <v>12.172148670108685</v>
       </c>
       <c r="AI37" s="6">
-        <f>1/0.03108*LN(($AC$30/AC37))*AH37/100</f>
+        <f t="shared" si="16"/>
         <v>8.2064451507854663</v>
       </c>
     </row>
@@ -6129,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="O38" s="18">
-        <f>DATE(L38,M38,N38)-DATE(I38,J38,K38)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="P38" s="18">
@@ -6145,67 +6142,67 @@
         <v>345</v>
       </c>
       <c r="T38" s="14">
-        <f>(R38/Q38)</f>
+        <f t="shared" si="9"/>
         <v>4.3271910684992594E-2</v>
       </c>
       <c r="U38" s="16">
-        <f>(S38/Q38)</f>
+        <f t="shared" si="10"/>
         <v>5.4945930019589416E-3</v>
       </c>
       <c r="V38" s="17">
-        <f>(T38/H38)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>99.362041392193362</v>
       </c>
       <c r="W38" s="16">
-        <f>(H38)*($K$7)*(U38/T38)*(1/G38)</f>
+        <f t="shared" si="12"/>
         <v>6.6464799181082057E-2</v>
       </c>
       <c r="X38" s="16">
-        <f>EXP(0.0050228*(O38))*W38</f>
+        <f t="shared" si="13"/>
         <v>6.7473901042771109E-2</v>
       </c>
       <c r="Y38" s="39">
-        <f>SQRT(R38/(R38^2)+S38/(S38^2))*100</f>
+        <f t="shared" si="14"/>
         <v>5.7154210031017207</v>
       </c>
       <c r="Z38" s="14">
-        <f>IF(X38=0,(X37+X39)/2,+X38)</f>
+        <f t="shared" si="0"/>
         <v>6.7473901042771109E-2</v>
       </c>
       <c r="AA38" s="14">
-        <f>IF(Z38=0,0,+Z38-$AA$1)</f>
+        <f t="shared" si="1"/>
         <v>3.0902566105540367E-2</v>
       </c>
       <c r="AB38" s="14">
-        <f>+AA38*E38</f>
+        <f t="shared" si="2"/>
         <v>0.25927252962548369</v>
       </c>
       <c r="AC38" s="14">
-        <f>+AC39+AB38</f>
+        <f t="shared" si="3"/>
         <v>0.46479987968070885</v>
       </c>
       <c r="AD38" s="6">
-        <f>$C$29-1/0.03108*LN(($AC$30/AC38))</f>
+        <f t="shared" si="4"/>
         <v>1922.2609884165611</v>
       </c>
       <c r="AE38" s="6">
-        <f>0.031*AC38/AA38/$AA$3</f>
+        <f t="shared" si="5"/>
         <v>149.57621636016</v>
       </c>
       <c r="AF38" s="6">
-        <f>SQRT((Y38*X38/100)^2+$AA$2^2)</f>
+        <f t="shared" si="6"/>
         <v>6.3791460479948638E-3</v>
       </c>
       <c r="AG38" s="6">
-        <f>AF38/AA38*100</f>
+        <f t="shared" si="7"/>
         <v>20.642771303225782</v>
       </c>
       <c r="AH38" s="6">
-        <f>SQRT(AG38^2+AG38^2+2^2)</f>
+        <f t="shared" si="15"/>
         <v>29.26171584433428</v>
       </c>
       <c r="AI38" s="6">
-        <f>1/0.03108*LN(($AC$30/AC38))*AH38/100</f>
+        <f t="shared" si="16"/>
         <v>27.020608467224466</v>
       </c>
     </row>
@@ -6253,7 +6250,7 @@
         <v>2</v>
       </c>
       <c r="O39" s="18">
-        <f>DATE(L39,M39,N39)-DATE(I39,J39,K39)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="P39" s="18">
@@ -6269,67 +6266,67 @@
         <v>277</v>
       </c>
       <c r="T39" s="14">
-        <f>(R39/Q39)</f>
+        <f t="shared" si="9"/>
         <v>4.3901273885350318E-2</v>
       </c>
       <c r="U39" s="16">
-        <f>(S39/Q39)</f>
+        <f t="shared" si="10"/>
         <v>4.4108280254777071E-3</v>
       </c>
       <c r="V39" s="17">
-        <f>(T39/H39)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>100.80720088191184</v>
       </c>
       <c r="W39" s="16">
-        <f>(H39)*($K$7)*(U39/T39)*(1/G39)</f>
+        <f t="shared" si="12"/>
         <v>5.3766390749773157E-2</v>
       </c>
       <c r="X39" s="16">
-        <f>EXP(0.0050228*(O39))*W39</f>
+        <f t="shared" si="13"/>
         <v>5.4582699016259881E-2</v>
       </c>
       <c r="Y39" s="39">
-        <f>SQRT(R39/(R39^2)+S39/(S39^2))*100</f>
+        <f t="shared" si="14"/>
         <v>6.3030321252487589</v>
       </c>
       <c r="Z39" s="14">
-        <f>IF(X39=0,(X38+X40)/2,+X39)</f>
+        <f t="shared" si="0"/>
         <v>5.4582699016259881E-2</v>
       </c>
       <c r="AA39" s="14">
-        <f>IF(Z39=0,0,+Z39-$AA$1)</f>
+        <f t="shared" si="1"/>
         <v>1.8011364079029139E-2</v>
       </c>
       <c r="AB39" s="14">
-        <f>+AA39*E39</f>
+        <f t="shared" si="2"/>
         <v>0.10734772991101367</v>
       </c>
       <c r="AC39" s="14">
-        <f>+AC40+AB39</f>
+        <f t="shared" si="3"/>
         <v>0.20552735005522516</v>
       </c>
       <c r="AD39" s="6">
-        <f>$C$29-1/0.03108*LN(($AC$30/AC39))</f>
+        <f t="shared" si="4"/>
         <v>1896.0052666887125</v>
       </c>
       <c r="AE39" s="6">
-        <f>0.031*AC39/AA39/$AA$3</f>
+        <f t="shared" si="5"/>
         <v>113.47863366836816</v>
       </c>
       <c r="AF39" s="6">
-        <f>SQRT((Y39*X39/100)^2+$AA$2^2)</f>
+        <f t="shared" si="6"/>
         <v>6.1365837385155449E-3</v>
       </c>
       <c r="AG39" s="6">
-        <f>AF39/AA39*100</f>
+        <f t="shared" si="7"/>
         <v>34.070621811817389</v>
       </c>
       <c r="AH39" s="6">
-        <f>SQRT(AG39^2+AG39^2+2^2)</f>
+        <f t="shared" si="15"/>
         <v>48.224625880226107</v>
       </c>
       <c r="AI39" s="6">
-        <f>1/0.03108*LN(($AC$30/AC39))*AH39/100</f>
+        <f t="shared" si="16"/>
         <v>57.192903541748855</v>
       </c>
     </row>
@@ -6377,7 +6374,7 @@
         <v>2</v>
       </c>
       <c r="O40" s="18">
-        <f>DATE(L40,M40,N40)-DATE(I40,J40,K40)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="P40" s="18">
@@ -6393,43 +6390,43 @@
         <v>191</v>
       </c>
       <c r="T40" s="14">
-        <f>(R40/Q40)</f>
+        <f t="shared" si="9"/>
         <v>3.7646384928716907E-2</v>
       </c>
       <c r="U40" s="16">
-        <f>(S40/Q40)</f>
+        <f t="shared" si="10"/>
         <v>3.0390784114052954E-3</v>
       </c>
       <c r="V40" s="17">
-        <f>(T40/H40)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>86.444568736155276</v>
       </c>
       <c r="W40" s="16">
-        <f>(H40)*($K$7)*(U40/T40)*(1/G40)</f>
+        <f t="shared" si="12"/>
         <v>3.8633388479652211E-2</v>
       </c>
       <c r="X40" s="16">
-        <f>EXP(0.0050228*(O40))*W40</f>
+        <f t="shared" si="13"/>
         <v>3.9219939928216131E-2</v>
       </c>
       <c r="Y40" s="39">
-        <f>SQRT(R40/(R40^2)+S40/(S40^2))*100</f>
+        <f t="shared" si="14"/>
         <v>7.5221382352685815</v>
       </c>
       <c r="Z40" s="14">
-        <f>IF(X40=0,(X39+X41)/2,+X40)</f>
+        <f t="shared" si="0"/>
         <v>3.9219939928216131E-2</v>
       </c>
       <c r="AA40" s="14">
-        <f>IF(Z40=0,0,+Z40-$AA$1)</f>
+        <f t="shared" si="1"/>
         <v>2.6486049909853898E-3</v>
       </c>
       <c r="AB40" s="14">
-        <f>+AA40*E40</f>
+        <f t="shared" si="2"/>
         <v>1.6235948594740441E-2</v>
       </c>
       <c r="AC40" s="14">
-        <f>+AC41+AB40</f>
+        <f t="shared" si="3"/>
         <v>9.8179620144211499E-2</v>
       </c>
       <c r="AD40" s="6"/>
@@ -6485,7 +6482,7 @@
         <v>2</v>
       </c>
       <c r="O41" s="18">
-        <f>DATE(L41,M41,N41)-DATE(I41,J41,K41)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="P41" s="18">
@@ -6502,43 +6499,43 @@
         <v>174</v>
       </c>
       <c r="T41" s="14">
-        <f>(R41/Q41)</f>
+        <f t="shared" si="9"/>
         <v>3.6437697901252245E-2</v>
       </c>
       <c r="U41" s="16">
-        <f>(S41/Q41)</f>
+        <f t="shared" si="10"/>
         <v>2.7686285741562841E-3</v>
       </c>
       <c r="V41" s="17">
-        <f>(T41/H41)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>82.922105419798626</v>
       </c>
       <c r="W41" s="16">
-        <f>(H41)*($K$7)*(U41/T41)*(1/G41)</f>
+        <f t="shared" si="12"/>
         <v>3.9151389924379595E-2</v>
       </c>
       <c r="X41" s="16">
-        <f>EXP(0.0050228*(O41))*W41</f>
+        <f t="shared" si="13"/>
         <v>3.9745805930253134E-2</v>
       </c>
       <c r="Y41" s="39">
-        <f>SQRT(R41/(R41^2)+S41/(S41^2))*100</f>
+        <f t="shared" si="14"/>
         <v>7.8637190053364909</v>
       </c>
       <c r="Z41" s="14">
-        <f>IF(X41=0,(X40+X42)/2,+X41)</f>
+        <f t="shared" si="0"/>
         <v>3.9745805930253134E-2</v>
       </c>
       <c r="AA41" s="14">
-        <f>IF(Z41=0,0,+Z41-$AA$1)</f>
+        <f t="shared" si="1"/>
         <v>3.1744709930223922E-3</v>
       </c>
       <c r="AB41" s="14">
-        <f>+AA41*E41</f>
+        <f t="shared" si="2"/>
         <v>2.7363939959853017E-2</v>
       </c>
       <c r="AC41" s="14">
-        <f>+AC42+AB41</f>
+        <f t="shared" si="3"/>
         <v>8.1943671549471062E-2</v>
       </c>
       <c r="AD41" s="6"/>
@@ -6592,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="O42" s="18">
-        <f>DATE(L42,M42,N42)-DATE(I42,J42,K42)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="P42" s="18">
@@ -6608,43 +6605,43 @@
         <v>188</v>
       </c>
       <c r="T42" s="14">
-        <f>(R42/Q42)</f>
+        <f t="shared" si="9"/>
         <v>3.0288553411045291E-2</v>
       </c>
       <c r="U42" s="16">
-        <f>(S42/Q42)</f>
+        <f t="shared" si="10"/>
         <v>2.9938212625007961E-3</v>
       </c>
       <c r="V42" s="17">
-        <f>(T42/H42)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>70.181599009776519</v>
       </c>
       <c r="W42" s="16">
-        <f>(H42)*($K$7)*(U42/T42)*(1/G42)</f>
+        <f t="shared" si="12"/>
         <v>4.143182614791447E-2</v>
       </c>
       <c r="X42" s="16">
-        <f>EXP(0.0050228*(O42))*W42</f>
+        <f t="shared" si="13"/>
         <v>4.2060864878402923E-2</v>
       </c>
       <c r="Y42" s="39">
-        <f>SQRT(R42/(R42^2)+S42/(S42^2))*100</f>
+        <f t="shared" si="14"/>
         <v>7.645201953896029</v>
       </c>
       <c r="Z42" s="14">
-        <f>IF(X42=0,(X41+X43)/2,+X42)</f>
+        <f t="shared" si="0"/>
         <v>4.2060864878402923E-2</v>
       </c>
       <c r="AA42" s="14">
-        <f>IF(Z42=0,0,+Z42-$AA$1)</f>
+        <f t="shared" si="1"/>
         <v>5.4895299411721818E-3</v>
       </c>
       <c r="AB42" s="14">
-        <f>+AA42*E42</f>
+        <f t="shared" si="2"/>
         <v>4.7868701087021431E-2</v>
       </c>
       <c r="AC42" s="14">
-        <f>+AC43+AB42</f>
+        <f t="shared" si="3"/>
         <v>5.4579731589618048E-2</v>
       </c>
       <c r="AD42" s="6"/>
@@ -6698,7 +6695,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="18">
-        <f>DATE(L43,M43,N43)-DATE(I43,J43,K43)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="P43" s="18">
@@ -6714,43 +6711,43 @@
         <v>181</v>
       </c>
       <c r="T43" s="14">
-        <f>(R43/Q43)</f>
+        <f t="shared" si="9"/>
         <v>4.092747714749817E-2</v>
       </c>
       <c r="U43" s="16">
-        <f>(S43/Q43)</f>
+        <f t="shared" si="10"/>
         <v>2.8824409975475363E-3</v>
       </c>
       <c r="V43" s="17">
-        <f>(T43/H43)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>92.315354858591064</v>
       </c>
       <c r="W43" s="16">
-        <f>(H43)*($K$7)*(U43/T43)*(1/G43)</f>
+        <f t="shared" si="12"/>
         <v>3.7180105046319155E-2</v>
       </c>
       <c r="X43" s="16">
-        <f>EXP(0.0050228*(O43))*W43</f>
+        <f t="shared" si="13"/>
         <v>3.7744592018104275E-2</v>
       </c>
       <c r="Y43" s="39">
-        <f>SQRT(R43/(R43^2)+S43/(S43^2))*100</f>
+        <f t="shared" si="14"/>
         <v>7.6902320750539097</v>
       </c>
       <c r="Z43" s="14">
-        <f>IF(X43=0,(X42+X44)/2,+X43)</f>
+        <f t="shared" si="0"/>
         <v>3.7744592018104275E-2</v>
       </c>
       <c r="AA43" s="14">
-        <f>IF(Z43=0,0,+Z43-$AA$1)</f>
+        <f t="shared" si="1"/>
         <v>1.173257080873534E-3</v>
       </c>
       <c r="AB43" s="14">
-        <f>+AA43*E43</f>
+        <f t="shared" si="2"/>
         <v>6.7110305025966143E-3</v>
       </c>
       <c r="AC43" s="14">
-        <f>+AC44+AB43</f>
+        <f t="shared" si="3"/>
         <v>6.7110305025966143E-3</v>
       </c>
       <c r="AD43" s="6"/>
@@ -6804,7 +6801,7 @@
         <v>2</v>
       </c>
       <c r="O44" s="18">
-        <f>DATE(L44,M44,N44)-DATE(I44,J44,K44)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="P44" s="18">
@@ -6820,27 +6817,27 @@
         <v>121</v>
       </c>
       <c r="T44" s="14">
-        <f>(R44/Q44)</f>
+        <f t="shared" si="9"/>
         <v>3.9383370757887025E-2</v>
       </c>
       <c r="U44" s="16">
-        <f>(S44/Q44)</f>
+        <f t="shared" si="10"/>
         <v>1.926966381603045E-3</v>
       </c>
       <c r="V44" s="17">
-        <f>(T44/H44)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>87.287580554326283</v>
       </c>
       <c r="W44" s="16">
-        <f>(H44)*($K$7)*(U44/T44)*(1/G44)</f>
+        <f t="shared" si="12"/>
         <v>3.0988301392262708E-2</v>
       </c>
       <c r="X44" s="16">
-        <f>EXP(0.0050228*(O44))*W44</f>
+        <f t="shared" si="13"/>
         <v>3.1458781300587088E-2</v>
       </c>
       <c r="Y44" s="39">
-        <f>SQRT(R44/(R44^2)+S44/(S44^2))*100</f>
+        <f t="shared" si="14"/>
         <v>9.3106551731355225</v>
       </c>
       <c r="Z44" s="14"/>
@@ -6898,7 +6895,7 @@
         <v>3</v>
       </c>
       <c r="O45" s="18">
-        <f>DATE(L45,M45,N45)-DATE(I45,J45,K45)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P45" s="18">
@@ -6914,27 +6911,27 @@
         <v>218</v>
       </c>
       <c r="T45" s="14">
-        <f>(R45/Q45)</f>
+        <f t="shared" si="9"/>
         <v>4.0022802564212881E-2</v>
       </c>
       <c r="U45" s="16">
-        <f>(S45/Q45)</f>
+        <f t="shared" si="10"/>
         <v>2.34479198038119E-3</v>
       </c>
       <c r="V45" s="17">
-        <f>(T45/H45)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>91.08081038542754</v>
       </c>
       <c r="W45" s="16">
-        <f>(H45)*($K$7)*(U45/T45)*(1/G45)</f>
+        <f t="shared" si="12"/>
         <v>2.8617255912000782E-2</v>
       </c>
       <c r="X45" s="16">
-        <f>EXP(0.0050228*(O45))*W45</f>
+        <f t="shared" si="13"/>
         <v>2.9198025567820862E-2</v>
       </c>
       <c r="Y45" s="39">
-        <f>SQRT(R45/(R45^2)+S45/(S45^2))*100</f>
+        <f t="shared" si="14"/>
         <v>6.9684294674874439</v>
       </c>
       <c r="Z45" s="14"/>
@@ -6992,7 +6989,7 @@
         <v>3</v>
       </c>
       <c r="O46" s="18">
-        <f>DATE(L46,M46,N46)-DATE(I46,J46,K46)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P46" s="18">
@@ -7008,27 +7005,27 @@
         <v>146</v>
       </c>
       <c r="T46" s="14">
-        <f>(R46/Q46)</f>
+        <f t="shared" si="9"/>
         <v>3.916401342397384E-2</v>
       </c>
       <c r="U46" s="16">
-        <f>(S46/Q46)</f>
+        <f t="shared" si="10"/>
         <v>1.5704328371052405E-3</v>
       </c>
       <c r="V46" s="17">
-        <f>(T46/H46)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>89.126444228342947</v>
       </c>
       <c r="W46" s="16">
-        <f>(H46)*($K$7)*(U46/T46)*(1/G46)</f>
+        <f t="shared" si="12"/>
         <v>2.3209008514144466E-2</v>
       </c>
       <c r="X46" s="16">
-        <f>EXP(0.0050228*(O46))*W46</f>
+        <f t="shared" si="13"/>
         <v>2.3680021106271879E-2</v>
       </c>
       <c r="Y46" s="39">
-        <f>SQRT(R46/(R46^2)+S46/(S46^2))*100</f>
+        <f t="shared" si="14"/>
         <v>8.4403583395320165</v>
       </c>
       <c r="Z46" s="14"/>
@@ -7086,7 +7083,7 @@
         <v>3</v>
       </c>
       <c r="O47" s="18">
-        <f>DATE(L47,M47,N47)-DATE(I47,J47,K47)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P47" s="18">
@@ -7102,27 +7099,27 @@
         <v>134</v>
       </c>
       <c r="T47" s="14">
-        <f>(R47/Q47)</f>
+        <f t="shared" si="9"/>
         <v>3.3333691875786553E-2</v>
       </c>
       <c r="U47" s="16">
-        <f>(S47/Q47)</f>
+        <f t="shared" si="10"/>
         <v>1.4413406619410772E-3</v>
       </c>
       <c r="V47" s="17">
-        <f>(T47/H47)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>76.541655302159228</v>
       </c>
       <c r="W47" s="16">
-        <f>(H47)*($K$7)*(U47/T47)*(1/G47)</f>
+        <f t="shared" si="12"/>
         <v>2.3438885703813007E-2</v>
       </c>
       <c r="X47" s="16">
-        <f>EXP(0.0050228*(O47))*W47</f>
+        <f t="shared" si="13"/>
         <v>2.3914563512505392E-2</v>
       </c>
       <c r="Y47" s="39">
-        <f>SQRT(R47/(R47^2)+S47/(S47^2))*100</f>
+        <f t="shared" si="14"/>
         <v>8.8234751114150711</v>
       </c>
       <c r="Z47" s="14"/>
@@ -7180,7 +7177,7 @@
         <v>3</v>
       </c>
       <c r="O48" s="18">
-        <f>DATE(L48,M48,N48)-DATE(I48,J48,K48)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P48" s="18">
@@ -7197,27 +7194,27 @@
         <v>168</v>
       </c>
       <c r="T48" s="14">
-        <f>(R48/Q48)</f>
+        <f t="shared" si="9"/>
         <v>3.5978266716875575E-2</v>
       </c>
       <c r="U48" s="16">
-        <f>(S48/Q48)</f>
+        <f t="shared" si="10"/>
         <v>1.8075205766851365E-3</v>
       </c>
       <c r="V48" s="40">
-        <f>(T48/H48)/($K$7)/(0.26)*100</f>
+        <f t="shared" si="11"/>
         <v>81.876567328800945</v>
       </c>
       <c r="W48" s="16">
-        <f>(H48)*($K$7)*(U48/T48)*(1/G48)</f>
+        <f t="shared" si="12"/>
         <v>2.4539978427413775E-2</v>
       </c>
       <c r="X48" s="16">
-        <f>EXP(0.0050228*(O48))*W48</f>
+        <f t="shared" si="13"/>
         <v>2.5038002237556405E-2</v>
       </c>
       <c r="Y48" s="39">
-        <f>SQRT(R48/(R48^2)+S48/(S48^2))*100</f>
+        <f t="shared" si="14"/>
         <v>7.9065947250266406</v>
       </c>
       <c r="Z48" s="14"/>

--- a/data-raw/alta_lake_pb210.xlsx
+++ b/data-raw/alta_lake_pb210.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dewey/d/rdevel/pb210/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D451E24-2B56-FB4E-A983-E13D6CE0F0A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05794022-331C-2745-A951-4108B3FD6020}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="3840" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{9AD30D51-AB46-5F49-9601-675826E02105}"/>
+    <workbookView xWindow="5500" yWindow="3840" windowWidth="27240" windowHeight="16440" xr2:uid="{9AD30D51-AB46-5F49-9601-675826E02105}"/>
   </bookViews>
   <sheets>
     <sheet name="drying" sheetId="1" r:id="rId1"/>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB484FF2-D1E7-F049-ADDA-BF7437F14474}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2202,6 +2202,12 @@
       <c r="E33">
         <v>54.305686833300001</v>
       </c>
+      <c r="F33">
+        <v>23.893333340800002</v>
+      </c>
+      <c r="G33">
+        <v>0.7664887091218362</v>
+      </c>
       <c r="H33">
         <v>3.59</v>
       </c>
@@ -2218,7 +2224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B36552-11ED-E14A-8E5D-F19D1C590A56}">
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
